--- a/Study 2/Models_link/Mapping/Map_EnergyPLAN.xlsx
+++ b/Study 2/Models_link/Mapping/Map_EnergyPLAN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\SESAM\IAM_COMPACT_1stMC\Study 2\Models_link\Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19378A20-27B7-424C-AF0C-B9235D30D74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3C0E54-7716-41FF-B252-339A945896EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shock_map" sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="780">
   <si>
     <t>Activity</t>
   </si>
@@ -851,18 +851,9 @@
     <t>Production of electricity by solar photovoltaic</t>
   </si>
   <si>
-    <t>Production of electricity by solar thermal</t>
-  </si>
-  <si>
-    <t>Production of electricity by tide, wave, ocean</t>
-  </si>
-  <si>
     <t>Production of electricity by wind</t>
   </si>
   <si>
-    <t>Production of electricity nec</t>
-  </si>
-  <si>
     <t>Production of meat products nec</t>
   </si>
   <si>
@@ -2376,6 +2367,42 @@
   </si>
   <si>
     <t>EU27</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Biomass</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Coal</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Gas</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Hydro</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Nuclear</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Oil</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Solar|PV</t>
+  </si>
+  <si>
+    <t>Secondary Energy|Electricity|Wind</t>
+  </si>
+  <si>
+    <t>Production of electricity by other RES</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>domestic_electricity_mix_update</t>
+  </si>
+  <si>
+    <t>EE mix evolution</t>
   </si>
 </sst>
 </file>
@@ -2791,30 +2818,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502CDA3E-637B-4318-B921-CB40339D00B7}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="30.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="30.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -2849,82 +2876,266 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B2" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F2" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="J2" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="K2">
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B3" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F3" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G3" t="s">
         <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="J3" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="K3">
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B4" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F4" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="G4" t="s">
         <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="J4" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="K4">
         <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>768</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" t="s">
+        <v>777</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>778</v>
+      </c>
+      <c r="J5" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>769</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>256</v>
+      </c>
+      <c r="F6" t="s">
+        <v>777</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>778</v>
+      </c>
+      <c r="J6" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>770</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F7" t="s">
+        <v>777</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>778</v>
+      </c>
+      <c r="J7" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>771</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" t="s">
+        <v>777</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>778</v>
+      </c>
+      <c r="J8" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>772</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>259</v>
+      </c>
+      <c r="F9" t="s">
+        <v>777</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>778</v>
+      </c>
+      <c r="J9" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>773</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" t="s">
+        <v>777</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>778</v>
+      </c>
+      <c r="J10" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>774</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>261</v>
+      </c>
+      <c r="F11" t="s">
+        <v>777</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>778</v>
+      </c>
+      <c r="J11" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>775</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>262</v>
+      </c>
+      <c r="F12" t="s">
+        <v>777</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>778</v>
+      </c>
+      <c r="J12" t="s">
+        <v>779</v>
       </c>
     </row>
   </sheetData>
@@ -2941,311 +3152,311 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
     </row>
   </sheetData>
@@ -3262,12 +3473,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
@@ -3275,7 +3486,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -3283,15 +3494,15 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -3299,7 +3510,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -3314,21 +3525,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A05D5D-78A8-40F2-A6FC-802F65DFA38B}">
-  <dimension ref="A1:B171"/>
+  <dimension ref="A1:B169"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A115" sqref="A115:A124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="121.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="121.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
@@ -3336,7 +3547,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>144</v>
       </c>
@@ -3344,7 +3555,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -3352,7 +3563,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>146</v>
       </c>
@@ -3360,7 +3571,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>147</v>
       </c>
@@ -3368,7 +3579,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>148</v>
       </c>
@@ -3376,7 +3587,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>149</v>
       </c>
@@ -3384,7 +3595,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>150</v>
       </c>
@@ -3392,7 +3603,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>151</v>
       </c>
@@ -3400,7 +3611,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>152</v>
       </c>
@@ -3408,7 +3619,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>153</v>
       </c>
@@ -3416,7 +3627,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>154</v>
       </c>
@@ -3424,7 +3635,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>155</v>
       </c>
@@ -3432,7 +3643,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>156</v>
       </c>
@@ -3440,7 +3651,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -3448,7 +3659,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>158</v>
       </c>
@@ -3456,7 +3667,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>159</v>
       </c>
@@ -3464,7 +3675,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>160</v>
       </c>
@@ -3472,7 +3683,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>161</v>
       </c>
@@ -3480,7 +3691,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>162</v>
       </c>
@@ -3488,7 +3699,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>163</v>
       </c>
@@ -3496,7 +3707,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>164</v>
       </c>
@@ -3504,7 +3715,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>165</v>
       </c>
@@ -3512,7 +3723,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>166</v>
       </c>
@@ -3520,7 +3731,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>167</v>
       </c>
@@ -3528,7 +3739,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>168</v>
       </c>
@@ -3536,7 +3747,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>169</v>
       </c>
@@ -3544,7 +3755,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>170</v>
       </c>
@@ -3552,7 +3763,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>171</v>
       </c>
@@ -3560,7 +3771,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>172</v>
       </c>
@@ -3568,7 +3779,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>173</v>
       </c>
@@ -3576,7 +3787,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>174</v>
       </c>
@@ -3584,7 +3795,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>175</v>
       </c>
@@ -3592,7 +3803,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>176</v>
       </c>
@@ -3600,7 +3811,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>177</v>
       </c>
@@ -3608,7 +3819,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>178</v>
       </c>
@@ -3616,7 +3827,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>179</v>
       </c>
@@ -3624,7 +3835,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>180</v>
       </c>
@@ -3632,7 +3843,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>181</v>
       </c>
@@ -3640,7 +3851,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>182</v>
       </c>
@@ -3648,7 +3859,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>183</v>
       </c>
@@ -3656,7 +3867,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>184</v>
       </c>
@@ -3664,7 +3875,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>185</v>
       </c>
@@ -3672,7 +3883,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>186</v>
       </c>
@@ -3680,7 +3891,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>187</v>
       </c>
@@ -3688,7 +3899,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>188</v>
       </c>
@@ -3696,7 +3907,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>189</v>
       </c>
@@ -3704,7 +3915,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>190</v>
       </c>
@@ -3712,7 +3923,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>191</v>
       </c>
@@ -3720,7 +3931,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>192</v>
       </c>
@@ -3728,7 +3939,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>193</v>
       </c>
@@ -3736,7 +3947,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>194</v>
       </c>
@@ -3744,7 +3955,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>195</v>
       </c>
@@ -3752,7 +3963,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>196</v>
       </c>
@@ -3760,7 +3971,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>197</v>
       </c>
@@ -3768,7 +3979,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>198</v>
       </c>
@@ -3776,7 +3987,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>199</v>
       </c>
@@ -3784,7 +3995,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>200</v>
       </c>
@@ -3792,7 +4003,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>201</v>
       </c>
@@ -3800,7 +4011,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>202</v>
       </c>
@@ -3808,7 +4019,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>203</v>
       </c>
@@ -3816,7 +4027,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>204</v>
       </c>
@@ -3824,7 +4035,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>205</v>
       </c>
@@ -3832,15 +4043,15 @@
         <v>139</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B64" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>206</v>
       </c>
@@ -3848,7 +4059,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>207</v>
       </c>
@@ -3856,7 +4067,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>208</v>
       </c>
@@ -3864,7 +4075,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>209</v>
       </c>
@@ -3872,7 +4083,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>210</v>
       </c>
@@ -3880,7 +4091,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>211</v>
       </c>
@@ -3888,7 +4099,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>212</v>
       </c>
@@ -3896,7 +4107,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>213</v>
       </c>
@@ -3904,7 +4115,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>214</v>
       </c>
@@ -3912,7 +4123,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>215</v>
       </c>
@@ -3920,7 +4131,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>216</v>
       </c>
@@ -3928,7 +4139,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>217</v>
       </c>
@@ -3936,7 +4147,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>218</v>
       </c>
@@ -3944,7 +4155,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>219</v>
       </c>
@@ -3952,7 +4163,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>220</v>
       </c>
@@ -3960,7 +4171,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>221</v>
       </c>
@@ -3968,7 +4179,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>222</v>
       </c>
@@ -3976,7 +4187,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>223</v>
       </c>
@@ -3984,7 +4195,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>224</v>
       </c>
@@ -3992,7 +4203,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>225</v>
       </c>
@@ -4000,7 +4211,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>226</v>
       </c>
@@ -4008,7 +4219,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>227</v>
       </c>
@@ -4016,7 +4227,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>228</v>
       </c>
@@ -4024,7 +4235,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>229</v>
       </c>
@@ -4032,7 +4243,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>230</v>
       </c>
@@ -4040,7 +4251,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>231</v>
       </c>
@@ -4048,7 +4259,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>232</v>
       </c>
@@ -4056,7 +4267,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>233</v>
       </c>
@@ -4064,7 +4275,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>234</v>
       </c>
@@ -4072,7 +4283,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>235</v>
       </c>
@@ -4080,7 +4291,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>236</v>
       </c>
@@ -4088,7 +4299,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>237</v>
       </c>
@@ -4096,7 +4307,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>238</v>
       </c>
@@ -4104,7 +4315,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>239</v>
       </c>
@@ -4112,7 +4323,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>240</v>
       </c>
@@ -4120,7 +4331,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>241</v>
       </c>
@@ -4128,7 +4339,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>242</v>
       </c>
@@ -4136,7 +4347,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>243</v>
       </c>
@@ -4144,7 +4355,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>244</v>
       </c>
@@ -4152,7 +4363,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>245</v>
       </c>
@@ -4160,7 +4371,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>246</v>
       </c>
@@ -4168,7 +4379,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>247</v>
       </c>
@@ -4176,7 +4387,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>248</v>
       </c>
@@ -4184,7 +4395,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>249</v>
       </c>
@@ -4192,7 +4403,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>250</v>
       </c>
@@ -4200,7 +4411,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>251</v>
       </c>
@@ -4208,7 +4419,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>252</v>
       </c>
@@ -4216,7 +4427,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>253</v>
       </c>
@@ -4224,23 +4435,23 @@
         <v>139</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B113" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B114" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>254</v>
       </c>
@@ -4248,7 +4459,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>255</v>
       </c>
@@ -4256,7 +4467,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>256</v>
       </c>
@@ -4264,7 +4475,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>257</v>
       </c>
@@ -4272,7 +4483,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>258</v>
       </c>
@@ -4280,7 +4491,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>259</v>
       </c>
@@ -4288,7 +4499,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>260</v>
       </c>
@@ -4296,7 +4507,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>261</v>
       </c>
@@ -4304,7 +4515,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>262</v>
       </c>
@@ -4312,387 +4523,371 @@
         <v>139</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>776</v>
+      </c>
+      <c r="B124" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>263</v>
       </c>
-      <c r="B124" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+      <c r="B125" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>676</v>
+      </c>
+      <c r="B126" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>677</v>
+      </c>
+      <c r="B127" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>678</v>
+      </c>
+      <c r="B128" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>679</v>
+      </c>
+      <c r="B129" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>680</v>
+      </c>
+      <c r="B130" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>264</v>
       </c>
-      <c r="B125" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+      <c r="B131" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>265</v>
       </c>
-      <c r="B126" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+      <c r="B132" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>266</v>
       </c>
-      <c r="B127" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>679</v>
-      </c>
-      <c r="B128" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>680</v>
-      </c>
-      <c r="B129" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+      <c r="B133" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>267</v>
+      </c>
+      <c r="B134" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>269</v>
+      </c>
+      <c r="B136" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>270</v>
+      </c>
+      <c r="B137" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>271</v>
+      </c>
+      <c r="B138" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>272</v>
+      </c>
+      <c r="B139" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>273</v>
+      </c>
+      <c r="B140" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>274</v>
+      </c>
+      <c r="B141" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>681</v>
       </c>
-      <c r="B130" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>682</v>
-      </c>
-      <c r="B131" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>683</v>
-      </c>
-      <c r="B132" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>267</v>
-      </c>
-      <c r="B133" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>268</v>
-      </c>
-      <c r="B134" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>269</v>
-      </c>
-      <c r="B135" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>270</v>
-      </c>
-      <c r="B136" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>271</v>
-      </c>
-      <c r="B137" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>272</v>
-      </c>
-      <c r="B138" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>273</v>
-      </c>
-      <c r="B139" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>274</v>
-      </c>
-      <c r="B140" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+      <c r="B142" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>275</v>
       </c>
-      <c r="B141" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+      <c r="B143" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>276</v>
       </c>
-      <c r="B142" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+      <c r="B144" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>277</v>
       </c>
-      <c r="B143" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>684</v>
-      </c>
-      <c r="B144" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+      <c r="B145" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>278</v>
       </c>
-      <c r="B145" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+      <c r="B146" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>279</v>
       </c>
-      <c r="B146" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+      <c r="B147" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>280</v>
       </c>
-      <c r="B147" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+      <c r="B148" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>281</v>
       </c>
-      <c r="B148" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+      <c r="B149" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>282</v>
       </c>
-      <c r="B149" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+      <c r="B150" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>283</v>
       </c>
-      <c r="B150" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+      <c r="B151" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>284</v>
       </c>
-      <c r="B151" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+      <c r="B152" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>285</v>
       </c>
-      <c r="B152" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+      <c r="B153" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>286</v>
       </c>
-      <c r="B153" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+      <c r="B154" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>287</v>
       </c>
-      <c r="B154" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+      <c r="B155" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>288</v>
       </c>
-      <c r="B155" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+      <c r="B156" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>289</v>
       </c>
-      <c r="B156" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
+      <c r="B157" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>290</v>
       </c>
-      <c r="B157" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+      <c r="B158" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>291</v>
       </c>
-      <c r="B158" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
+      <c r="B160" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>292</v>
       </c>
-      <c r="B159" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+      <c r="B161" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>293</v>
       </c>
-      <c r="B160" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>4</v>
-      </c>
-      <c r="B161" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+      <c r="B162" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>294</v>
       </c>
-      <c r="B162" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+      <c r="B163" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>295</v>
       </c>
-      <c r="B163" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+      <c r="B164" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>296</v>
       </c>
-      <c r="B164" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+      <c r="B165" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>297</v>
       </c>
-      <c r="B165" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+      <c r="B166" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>298</v>
       </c>
-      <c r="B166" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+      <c r="B167" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>299</v>
       </c>
-      <c r="B167" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+      <c r="B168" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>300</v>
       </c>
-      <c r="B168" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>301</v>
-      </c>
       <c r="B169" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>302</v>
-      </c>
-      <c r="B170" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>303</v>
-      </c>
-      <c r="B171" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4710,20 +4905,20 @@
   <dimension ref="A1:B200"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E16" sqref="E16"/>
       <selection pane="topRight" activeCell="E16" sqref="E16"/>
       <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
-      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomRight" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="128.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="128.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
@@ -4731,39 +4926,39 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>304</v>
       </c>
-      <c r="B2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>306</v>
-      </c>
-      <c r="B4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>307</v>
-      </c>
       <c r="B5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>148</v>
       </c>
@@ -4771,63 +4966,63 @@
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>682</v>
+      </c>
+      <c r="B8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>308</v>
       </c>
-      <c r="B7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>685</v>
-      </c>
-      <c r="B8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>309</v>
       </c>
-      <c r="B9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>310</v>
       </c>
-      <c r="B10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>311</v>
-      </c>
-      <c r="B11" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>312</v>
-      </c>
-      <c r="B12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>313</v>
-      </c>
       <c r="B13" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -4835,95 +5030,95 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>312</v>
+      </c>
+      <c r="B16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>313</v>
+      </c>
+      <c r="B17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>683</v>
+      </c>
+      <c r="B18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>684</v>
+      </c>
+      <c r="B19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>314</v>
       </c>
-      <c r="B15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>685</v>
+      </c>
+      <c r="B21" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>315</v>
       </c>
-      <c r="B16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>316</v>
       </c>
-      <c r="B17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>317</v>
+      </c>
+      <c r="B24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>686</v>
       </c>
-      <c r="B18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>687</v>
-      </c>
-      <c r="B19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>317</v>
-      </c>
-      <c r="B20" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>688</v>
-      </c>
-      <c r="B21" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>318</v>
-      </c>
-      <c r="B22" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>319</v>
-      </c>
-      <c r="B23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>320</v>
-      </c>
-      <c r="B24" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>689</v>
-      </c>
       <c r="B25" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>154</v>
       </c>
@@ -4931,151 +5126,151 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>318</v>
+      </c>
+      <c r="B27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>319</v>
+      </c>
+      <c r="B28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>320</v>
+      </c>
+      <c r="B29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>321</v>
       </c>
-      <c r="B27" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="B30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>687</v>
+      </c>
+      <c r="B31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>322</v>
       </c>
-      <c r="B28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>323</v>
       </c>
-      <c r="B29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="B33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>324</v>
       </c>
-      <c r="B30" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>325</v>
+      </c>
+      <c r="B35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>326</v>
+      </c>
+      <c r="B36" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>688</v>
+      </c>
+      <c r="B37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>689</v>
+      </c>
+      <c r="B38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>327</v>
+      </c>
+      <c r="B39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>328</v>
+      </c>
+      <c r="B40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>329</v>
+      </c>
+      <c r="B41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>690</v>
       </c>
-      <c r="B31" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>325</v>
-      </c>
-      <c r="B32" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>326</v>
-      </c>
-      <c r="B33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>327</v>
-      </c>
-      <c r="B34" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>328</v>
-      </c>
-      <c r="B35" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>329</v>
-      </c>
-      <c r="B36" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>691</v>
-      </c>
-      <c r="B37" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>692</v>
-      </c>
-      <c r="B38" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="B42" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>330</v>
       </c>
-      <c r="B39" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="B43" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>331</v>
       </c>
-      <c r="B40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>332</v>
-      </c>
-      <c r="B41" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>693</v>
-      </c>
-      <c r="B42" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>333</v>
-      </c>
-      <c r="B43" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>334</v>
-      </c>
       <c r="B44" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -5083,15 +5278,15 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B46" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>171</v>
       </c>
@@ -5099,295 +5294,295 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>691</v>
+      </c>
+      <c r="B48" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>692</v>
+      </c>
+      <c r="B49" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>333</v>
+      </c>
+      <c r="B50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>334</v>
+      </c>
+      <c r="B51" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>335</v>
+      </c>
+      <c r="B52" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>336</v>
+      </c>
+      <c r="B53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>337</v>
+      </c>
+      <c r="B54" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>338</v>
+      </c>
+      <c r="B55" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>339</v>
+      </c>
+      <c r="B56" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>340</v>
+      </c>
+      <c r="B57" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>341</v>
+      </c>
+      <c r="B58" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>342</v>
+      </c>
+      <c r="B59" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>343</v>
+      </c>
+      <c r="B60" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>344</v>
+      </c>
+      <c r="B61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>345</v>
+      </c>
+      <c r="B62" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>346</v>
+      </c>
+      <c r="B63" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>347</v>
+      </c>
+      <c r="B64" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>348</v>
+      </c>
+      <c r="B65" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>349</v>
+      </c>
+      <c r="B66" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>350</v>
+      </c>
+      <c r="B67" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>351</v>
+      </c>
+      <c r="B68" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>352</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>693</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>353</v>
+      </c>
+      <c r="B71" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>354</v>
+      </c>
+      <c r="B72" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>355</v>
+      </c>
+      <c r="B73" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>356</v>
+      </c>
+      <c r="B74" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>694</v>
       </c>
-      <c r="B48" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="B75" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>695</v>
       </c>
-      <c r="B49" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>336</v>
-      </c>
-      <c r="B50" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>337</v>
-      </c>
-      <c r="B51" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>338</v>
-      </c>
-      <c r="B52" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>339</v>
-      </c>
-      <c r="B53" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>340</v>
-      </c>
-      <c r="B54" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>341</v>
-      </c>
-      <c r="B55" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>342</v>
-      </c>
-      <c r="B56" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>343</v>
-      </c>
-      <c r="B57" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>344</v>
-      </c>
-      <c r="B58" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>345</v>
-      </c>
-      <c r="B59" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>346</v>
-      </c>
-      <c r="B60" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>347</v>
-      </c>
-      <c r="B61" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>348</v>
-      </c>
-      <c r="B62" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>349</v>
-      </c>
-      <c r="B63" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>350</v>
-      </c>
-      <c r="B64" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>351</v>
-      </c>
-      <c r="B65" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>352</v>
-      </c>
-      <c r="B66" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>353</v>
-      </c>
-      <c r="B67" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>354</v>
-      </c>
-      <c r="B68" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>355</v>
-      </c>
-      <c r="B69" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>696</v>
-      </c>
-      <c r="B70" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>356</v>
-      </c>
-      <c r="B71" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="B76" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>357</v>
       </c>
-      <c r="B72" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="B77" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>358</v>
       </c>
-      <c r="B73" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="B78" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>359</v>
       </c>
-      <c r="B74" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>697</v>
-      </c>
-      <c r="B75" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>698</v>
-      </c>
-      <c r="B76" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="B79" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>360</v>
       </c>
-      <c r="B77" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="B80" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>361</v>
       </c>
-      <c r="B78" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="B81" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>362</v>
       </c>
-      <c r="B79" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="B82" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>363</v>
       </c>
-      <c r="B80" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>364</v>
-      </c>
-      <c r="B81" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>365</v>
-      </c>
-      <c r="B82" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>366</v>
-      </c>
       <c r="B83" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>221</v>
       </c>
@@ -5395,55 +5590,55 @@
         <v>139</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B85" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B86" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B87" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B88" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B89" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B90" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>232</v>
       </c>
@@ -5451,55 +5646,55 @@
         <v>139</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>367</v>
+      </c>
+      <c r="B92" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>368</v>
+      </c>
+      <c r="B93" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>699</v>
+      </c>
+      <c r="B94" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>700</v>
+      </c>
+      <c r="B95" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>369</v>
+      </c>
+      <c r="B96" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>370</v>
       </c>
-      <c r="B92" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>371</v>
-      </c>
-      <c r="B93" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>702</v>
-      </c>
-      <c r="B94" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>703</v>
-      </c>
-      <c r="B95" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>372</v>
-      </c>
-      <c r="B96" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>373</v>
-      </c>
       <c r="B97" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -5507,143 +5702,143 @@
         <v>139</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>371</v>
+      </c>
+      <c r="B99" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>701</v>
+      </c>
+      <c r="B100" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>372</v>
+      </c>
+      <c r="B101" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>373</v>
+      </c>
+      <c r="B102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>702</v>
+      </c>
+      <c r="B103" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>374</v>
       </c>
-      <c r="B99" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>704</v>
-      </c>
-      <c r="B100" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+      <c r="B104" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>375</v>
       </c>
-      <c r="B101" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+      <c r="B105" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>376</v>
       </c>
-      <c r="B102" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>705</v>
-      </c>
-      <c r="B103" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+      <c r="B106" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>377</v>
       </c>
-      <c r="B104" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+      <c r="B107" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>378</v>
       </c>
-      <c r="B105" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+      <c r="B108" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>379</v>
       </c>
-      <c r="B106" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="B109" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>380</v>
       </c>
-      <c r="B107" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+      <c r="B110" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>381</v>
       </c>
-      <c r="B108" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+      <c r="B111" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>382</v>
       </c>
-      <c r="B109" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+      <c r="B112" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>383</v>
       </c>
-      <c r="B110" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+      <c r="B113" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>384</v>
       </c>
-      <c r="B111" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+      <c r="B114" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>385</v>
       </c>
-      <c r="B112" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>386</v>
-      </c>
-      <c r="B113" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>387</v>
-      </c>
-      <c r="B114" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>388</v>
-      </c>
       <c r="B115" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>237</v>
       </c>
@@ -5651,143 +5846,143 @@
         <v>139</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B117" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>386</v>
+      </c>
+      <c r="B118" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>387</v>
+      </c>
+      <c r="B119" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>388</v>
+      </c>
+      <c r="B120" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>389</v>
       </c>
-      <c r="B118" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+      <c r="B121" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>390</v>
       </c>
-      <c r="B119" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+      <c r="B122" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>391</v>
       </c>
-      <c r="B120" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+      <c r="B123" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>392</v>
       </c>
-      <c r="B121" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+      <c r="B124" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>393</v>
       </c>
-      <c r="B122" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+      <c r="B125" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>394</v>
       </c>
-      <c r="B123" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+      <c r="B126" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>395</v>
       </c>
-      <c r="B124" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+      <c r="B127" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>704</v>
+      </c>
+      <c r="B128" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>705</v>
+      </c>
+      <c r="B129" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>396</v>
       </c>
-      <c r="B125" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+      <c r="B130" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>397</v>
       </c>
-      <c r="B126" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+      <c r="B131" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>398</v>
       </c>
-      <c r="B127" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>707</v>
-      </c>
-      <c r="B128" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>708</v>
-      </c>
-      <c r="B129" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+      <c r="B132" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>399</v>
       </c>
-      <c r="B130" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>400</v>
-      </c>
-      <c r="B131" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>401</v>
-      </c>
-      <c r="B132" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>402</v>
-      </c>
       <c r="B133" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>241</v>
       </c>
@@ -5795,47 +5990,47 @@
         <v>139</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>400</v>
+      </c>
+      <c r="B135" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>401</v>
+      </c>
+      <c r="B136" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>402</v>
+      </c>
+      <c r="B137" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>403</v>
       </c>
-      <c r="B135" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+      <c r="B138" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>404</v>
       </c>
-      <c r="B136" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>405</v>
-      </c>
-      <c r="B137" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>406</v>
-      </c>
-      <c r="B138" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>407</v>
-      </c>
       <c r="B139" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>245</v>
       </c>
@@ -5843,7 +6038,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>246</v>
       </c>
@@ -5851,255 +6046,255 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>706</v>
+      </c>
+      <c r="B142" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>405</v>
+      </c>
+      <c r="B143" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>406</v>
+      </c>
+      <c r="B144" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>407</v>
+      </c>
+      <c r="B145" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>408</v>
+      </c>
+      <c r="B146" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>266</v>
+      </c>
+      <c r="B147" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>707</v>
+      </c>
+      <c r="B148" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>409</v>
+      </c>
+      <c r="B149" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>269</v>
+      </c>
+      <c r="B150" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>708</v>
+      </c>
+      <c r="B151" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>410</v>
+      </c>
+      <c r="B152" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>709</v>
       </c>
-      <c r="B142" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
-        <v>408</v>
-      </c>
-      <c r="B143" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>409</v>
-      </c>
-      <c r="B144" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>410</v>
-      </c>
-      <c r="B145" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+      <c r="B153" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>411</v>
       </c>
-      <c r="B146" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>269</v>
-      </c>
-      <c r="B147" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+      <c r="B154" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>412</v>
+      </c>
+      <c r="B155" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>413</v>
+      </c>
+      <c r="B156" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>414</v>
+      </c>
+      <c r="B157" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>710</v>
       </c>
-      <c r="B148" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>412</v>
-      </c>
-      <c r="B149" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
-        <v>272</v>
-      </c>
-      <c r="B150" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+      <c r="B158" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>415</v>
+      </c>
+      <c r="B159" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>416</v>
+      </c>
+      <c r="B160" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>289</v>
+      </c>
+      <c r="B161" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>417</v>
+      </c>
+      <c r="B162" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>418</v>
+      </c>
+      <c r="B163" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>711</v>
       </c>
-      <c r="B151" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
-        <v>413</v>
-      </c>
-      <c r="B152" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+      <c r="B164" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>712</v>
       </c>
-      <c r="B153" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>414</v>
-      </c>
-      <c r="B154" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>415</v>
-      </c>
-      <c r="B155" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>416</v>
-      </c>
-      <c r="B156" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>417</v>
-      </c>
-      <c r="B157" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+      <c r="B165" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>713</v>
       </c>
-      <c r="B158" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>418</v>
-      </c>
-      <c r="B159" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>419</v>
-      </c>
-      <c r="B160" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>292</v>
-      </c>
-      <c r="B161" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>420</v>
-      </c>
-      <c r="B162" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>421</v>
-      </c>
-      <c r="B163" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+      <c r="B166" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>714</v>
       </c>
-      <c r="B164" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+      <c r="B167" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>715</v>
       </c>
-      <c r="B165" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+      <c r="B168" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>716</v>
       </c>
-      <c r="B166" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+      <c r="B169" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>717</v>
       </c>
-      <c r="B167" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+      <c r="B170" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>718</v>
       </c>
-      <c r="B168" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+      <c r="B171" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>719</v>
       </c>
-      <c r="B169" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>720</v>
-      </c>
-      <c r="B170" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>721</v>
-      </c>
-      <c r="B171" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>722</v>
-      </c>
       <c r="B172" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>6</v>
       </c>
@@ -6107,217 +6302,217 @@
         <v>139</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>720</v>
+      </c>
+      <c r="B174" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>419</v>
+      </c>
+      <c r="B175" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>420</v>
+      </c>
+      <c r="B176" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>421</v>
+      </c>
+      <c r="B177" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>422</v>
+      </c>
+      <c r="B178" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>423</v>
+      </c>
+      <c r="B179" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>424</v>
+      </c>
+      <c r="B180" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>721</v>
+      </c>
+      <c r="B181" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>425</v>
+      </c>
+      <c r="B182" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>426</v>
+      </c>
+      <c r="B183" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>427</v>
+      </c>
+      <c r="B184" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>428</v>
+      </c>
+      <c r="B185" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>429</v>
+      </c>
+      <c r="B186" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>430</v>
+      </c>
+      <c r="B187" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>431</v>
+      </c>
+      <c r="B188" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>432</v>
+      </c>
+      <c r="B189" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>722</v>
+      </c>
+      <c r="B190" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>433</v>
+      </c>
+      <c r="B191" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>434</v>
+      </c>
+      <c r="B192" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>435</v>
+      </c>
+      <c r="B193" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>723</v>
       </c>
-      <c r="B174" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>422</v>
-      </c>
-      <c r="B175" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>423</v>
-      </c>
-      <c r="B176" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>424</v>
-      </c>
-      <c r="B177" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>425</v>
-      </c>
-      <c r="B178" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>426</v>
-      </c>
-      <c r="B179" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>427</v>
-      </c>
-      <c r="B180" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
+      <c r="B194" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>436</v>
+      </c>
+      <c r="B195" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>724</v>
       </c>
-      <c r="B181" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
-        <v>428</v>
-      </c>
-      <c r="B182" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>429</v>
-      </c>
-      <c r="B183" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
-        <v>430</v>
-      </c>
-      <c r="B184" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
-        <v>431</v>
-      </c>
-      <c r="B185" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
-        <v>432</v>
-      </c>
-      <c r="B186" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
-        <v>433</v>
-      </c>
-      <c r="B187" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
-        <v>434</v>
-      </c>
-      <c r="B188" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
-        <v>435</v>
-      </c>
-      <c r="B189" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
-        <v>725</v>
-      </c>
-      <c r="B190" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
-        <v>436</v>
-      </c>
-      <c r="B191" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
+      <c r="B196" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>437</v>
       </c>
-      <c r="B192" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
+      <c r="B197" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>438</v>
       </c>
-      <c r="B193" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>726</v>
-      </c>
-      <c r="B194" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
+      <c r="B198" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>300</v>
+      </c>
+      <c r="B199" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>439</v>
-      </c>
-      <c r="B195" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
-        <v>727</v>
-      </c>
-      <c r="B196" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
-        <v>440</v>
-      </c>
-      <c r="B197" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
-        <v>441</v>
-      </c>
-      <c r="B198" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
-        <v>303</v>
-      </c>
-      <c r="B199" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>442</v>
       </c>
       <c r="B200" t="s">
         <v>139</v>
@@ -6340,13 +6535,13 @@
       <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="80.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="80.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
@@ -6354,9 +6549,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -6370,7 +6565,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6384,12 +6579,12 @@
       <selection activeCell="A2" sqref="A2:A337"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="64.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="64.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
@@ -6397,1684 +6592,1684 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A281" t="s">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A282" t="s">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A283" t="s">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A286" t="s">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A291" t="s">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A297" t="s">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A298" t="s">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A300" t="s">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A301" t="s">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A302" t="s">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A312" t="s">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A317" t="s">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A319" t="s">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A320" t="s">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A322" t="s">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A323" t="s">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A324" t="s">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A325" t="s">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A326" t="s">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A327" t="s">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A330" t="s">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A331" t="s">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A332" t="s">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A333" t="s">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A334" t="s">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
         <v>669</v>
-      </c>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A335" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A336" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A337" t="s">
-        <v>672</v>
       </c>
     </row>
   </sheetData>
